--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_190.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_190.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32416-d84713-Reviews-Days_Inn_Suites_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>584</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Days-Inn-Suites-By-Wyndham-Fullerton.h17868.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_190.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_190.xlsx
@@ -8107,7 +8107,7 @@
         <v>20604</v>
       </c>
       <c r="B2" t="n">
-        <v>134951</v>
+        <v>165854</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -8168,7 +8168,7 @@
         <v>20604</v>
       </c>
       <c r="B3" t="n">
-        <v>134952</v>
+        <v>165855</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -8298,7 +8298,7 @@
         <v>20604</v>
       </c>
       <c r="B5" t="n">
-        <v>134953</v>
+        <v>165856</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -8448,7 +8448,7 @@
         <v>20604</v>
       </c>
       <c r="B7" t="n">
-        <v>134954</v>
+        <v>165857</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -8596,7 +8596,7 @@
         <v>20604</v>
       </c>
       <c r="B9" t="n">
-        <v>134955</v>
+        <v>165858</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -8671,7 +8671,7 @@
         <v>20604</v>
       </c>
       <c r="B10" t="n">
-        <v>134956</v>
+        <v>165859</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -8821,7 +8821,7 @@
         <v>20604</v>
       </c>
       <c r="B12" t="n">
-        <v>134957</v>
+        <v>165860</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -8894,7 +8894,7 @@
         <v>20604</v>
       </c>
       <c r="B13" t="n">
-        <v>134958</v>
+        <v>165861</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -9038,7 +9038,7 @@
         <v>20604</v>
       </c>
       <c r="B15" t="n">
-        <v>134959</v>
+        <v>165862</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
@@ -9103,7 +9103,7 @@
         <v>20604</v>
       </c>
       <c r="B16" t="n">
-        <v>134960</v>
+        <v>165863</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
@@ -9174,7 +9174,7 @@
         <v>20604</v>
       </c>
       <c r="B17" t="n">
-        <v>134961</v>
+        <v>165864</v>
       </c>
       <c r="C17" t="s">
         <v>169</v>
@@ -9389,7 +9389,7 @@
         <v>20604</v>
       </c>
       <c r="B20" t="n">
-        <v>134962</v>
+        <v>165865</v>
       </c>
       <c r="C20" t="s">
         <v>194</v>
@@ -9454,7 +9454,7 @@
         <v>20604</v>
       </c>
       <c r="B21" t="n">
-        <v>134963</v>
+        <v>165866</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -9529,7 +9529,7 @@
         <v>20604</v>
       </c>
       <c r="B22" t="n">
-        <v>134964</v>
+        <v>165867</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -9594,7 +9594,7 @@
         <v>20604</v>
       </c>
       <c r="B23" t="n">
-        <v>134965</v>
+        <v>165868</v>
       </c>
       <c r="C23" t="s">
         <v>216</v>
@@ -9669,7 +9669,7 @@
         <v>20604</v>
       </c>
       <c r="B24" t="n">
-        <v>134966</v>
+        <v>165869</v>
       </c>
       <c r="C24" t="s">
         <v>225</v>
@@ -9744,7 +9744,7 @@
         <v>20604</v>
       </c>
       <c r="B25" t="n">
-        <v>134967</v>
+        <v>165870</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -9819,7 +9819,7 @@
         <v>20604</v>
       </c>
       <c r="B26" t="n">
-        <v>134968</v>
+        <v>165871</v>
       </c>
       <c r="C26" t="s">
         <v>239</v>
@@ -9894,7 +9894,7 @@
         <v>20604</v>
       </c>
       <c r="B27" t="n">
-        <v>134969</v>
+        <v>165872</v>
       </c>
       <c r="C27" t="s">
         <v>248</v>
@@ -9969,7 +9969,7 @@
         <v>20604</v>
       </c>
       <c r="B28" t="n">
-        <v>134970</v>
+        <v>165873</v>
       </c>
       <c r="C28" t="s">
         <v>255</v>
@@ -10044,7 +10044,7 @@
         <v>20604</v>
       </c>
       <c r="B29" t="n">
-        <v>134971</v>
+        <v>165874</v>
       </c>
       <c r="C29" t="s">
         <v>262</v>
@@ -10194,7 +10194,7 @@
         <v>20604</v>
       </c>
       <c r="B31" t="n">
-        <v>134972</v>
+        <v>165875</v>
       </c>
       <c r="C31" t="s">
         <v>278</v>
@@ -10269,7 +10269,7 @@
         <v>20604</v>
       </c>
       <c r="B32" t="n">
-        <v>134973</v>
+        <v>165876</v>
       </c>
       <c r="C32" t="s">
         <v>285</v>
@@ -10419,7 +10419,7 @@
         <v>20604</v>
       </c>
       <c r="B34" t="n">
-        <v>134974</v>
+        <v>165877</v>
       </c>
       <c r="C34" t="s">
         <v>301</v>
@@ -10494,7 +10494,7 @@
         <v>20604</v>
       </c>
       <c r="B35" t="n">
-        <v>134975</v>
+        <v>165878</v>
       </c>
       <c r="C35" t="s">
         <v>308</v>
@@ -10699,7 +10699,7 @@
         <v>20604</v>
       </c>
       <c r="B38" t="n">
-        <v>134976</v>
+        <v>165879</v>
       </c>
       <c r="C38" t="s">
         <v>330</v>
@@ -10774,7 +10774,7 @@
         <v>20604</v>
       </c>
       <c r="B39" t="n">
-        <v>134977</v>
+        <v>165880</v>
       </c>
       <c r="C39" t="s">
         <v>337</v>
@@ -10849,7 +10849,7 @@
         <v>20604</v>
       </c>
       <c r="B40" t="n">
-        <v>134978</v>
+        <v>165881</v>
       </c>
       <c r="C40" t="s">
         <v>346</v>
@@ -10924,7 +10924,7 @@
         <v>20604</v>
       </c>
       <c r="B41" t="n">
-        <v>134979</v>
+        <v>165882</v>
       </c>
       <c r="C41" t="s">
         <v>353</v>
@@ -10999,7 +10999,7 @@
         <v>20604</v>
       </c>
       <c r="B42" t="n">
-        <v>134980</v>
+        <v>165883</v>
       </c>
       <c r="C42" t="s">
         <v>361</v>
@@ -11074,7 +11074,7 @@
         <v>20604</v>
       </c>
       <c r="B43" t="n">
-        <v>134981</v>
+        <v>165884</v>
       </c>
       <c r="C43" t="s">
         <v>367</v>
@@ -11149,7 +11149,7 @@
         <v>20604</v>
       </c>
       <c r="B44" t="n">
-        <v>134982</v>
+        <v>165885</v>
       </c>
       <c r="C44" t="s">
         <v>374</v>
@@ -11222,7 +11222,7 @@
         <v>20604</v>
       </c>
       <c r="B45" t="n">
-        <v>134983</v>
+        <v>165886</v>
       </c>
       <c r="C45" t="s">
         <v>380</v>
@@ -11297,7 +11297,7 @@
         <v>20604</v>
       </c>
       <c r="B46" t="n">
-        <v>134984</v>
+        <v>135019</v>
       </c>
       <c r="C46" t="s">
         <v>387</v>
@@ -11372,7 +11372,7 @@
         <v>20604</v>
       </c>
       <c r="B47" t="n">
-        <v>134985</v>
+        <v>165887</v>
       </c>
       <c r="C47" t="s">
         <v>393</v>
@@ -11447,7 +11447,7 @@
         <v>20604</v>
       </c>
       <c r="B48" t="n">
-        <v>134986</v>
+        <v>165888</v>
       </c>
       <c r="C48" t="s">
         <v>400</v>
@@ -11597,7 +11597,7 @@
         <v>20604</v>
       </c>
       <c r="B50" t="n">
-        <v>134987</v>
+        <v>135052</v>
       </c>
       <c r="C50" t="s">
         <v>415</v>
@@ -11672,7 +11672,7 @@
         <v>20604</v>
       </c>
       <c r="B51" t="n">
-        <v>134988</v>
+        <v>165889</v>
       </c>
       <c r="C51" t="s">
         <v>422</v>
@@ -11741,7 +11741,7 @@
         <v>20604</v>
       </c>
       <c r="B52" t="n">
-        <v>134989</v>
+        <v>165890</v>
       </c>
       <c r="C52" t="s">
         <v>429</v>
@@ -11812,7 +11812,7 @@
         <v>20604</v>
       </c>
       <c r="B53" t="n">
-        <v>134990</v>
+        <v>165891</v>
       </c>
       <c r="C53" t="s">
         <v>436</v>
@@ -11887,7 +11887,7 @@
         <v>20604</v>
       </c>
       <c r="B54" t="n">
-        <v>134991</v>
+        <v>165892</v>
       </c>
       <c r="C54" t="s">
         <v>445</v>
@@ -11962,7 +11962,7 @@
         <v>20604</v>
       </c>
       <c r="B55" t="n">
-        <v>134992</v>
+        <v>165893</v>
       </c>
       <c r="C55" t="s">
         <v>452</v>
@@ -12027,7 +12027,7 @@
         <v>20604</v>
       </c>
       <c r="B56" t="n">
-        <v>134993</v>
+        <v>165894</v>
       </c>
       <c r="C56" t="s">
         <v>459</v>
@@ -12102,7 +12102,7 @@
         <v>20604</v>
       </c>
       <c r="B57" t="n">
-        <v>134994</v>
+        <v>165895</v>
       </c>
       <c r="C57" t="s">
         <v>467</v>
@@ -12177,7 +12177,7 @@
         <v>20604</v>
       </c>
       <c r="B58" t="n">
-        <v>134995</v>
+        <v>165896</v>
       </c>
       <c r="C58" t="s">
         <v>473</v>
@@ -12248,7 +12248,7 @@
         <v>20604</v>
       </c>
       <c r="B59" t="n">
-        <v>134996</v>
+        <v>134973</v>
       </c>
       <c r="C59" t="s">
         <v>480</v>
@@ -12323,7 +12323,7 @@
         <v>20604</v>
       </c>
       <c r="B60" t="n">
-        <v>134997</v>
+        <v>165897</v>
       </c>
       <c r="C60" t="s">
         <v>489</v>
@@ -12398,7 +12398,7 @@
         <v>20604</v>
       </c>
       <c r="B61" t="n">
-        <v>134998</v>
+        <v>165898</v>
       </c>
       <c r="C61" t="s">
         <v>496</v>
@@ -12469,7 +12469,7 @@
         <v>20604</v>
       </c>
       <c r="B62" t="n">
-        <v>134999</v>
+        <v>165899</v>
       </c>
       <c r="C62" t="s">
         <v>506</v>
@@ -12615,7 +12615,7 @@
         <v>20604</v>
       </c>
       <c r="B64" t="n">
-        <v>135000</v>
+        <v>165900</v>
       </c>
       <c r="C64" t="s">
         <v>521</v>
@@ -12680,7 +12680,7 @@
         <v>20604</v>
       </c>
       <c r="B65" t="n">
-        <v>135001</v>
+        <v>165901</v>
       </c>
       <c r="C65" t="s">
         <v>527</v>
@@ -12830,7 +12830,7 @@
         <v>20604</v>
       </c>
       <c r="B67" t="n">
-        <v>135002</v>
+        <v>165902</v>
       </c>
       <c r="C67" t="s">
         <v>540</v>
@@ -12978,7 +12978,7 @@
         <v>20604</v>
       </c>
       <c r="B69" t="n">
-        <v>135003</v>
+        <v>165903</v>
       </c>
       <c r="C69" t="s">
         <v>552</v>
@@ -13053,7 +13053,7 @@
         <v>20604</v>
       </c>
       <c r="B70" t="n">
-        <v>135004</v>
+        <v>165904</v>
       </c>
       <c r="C70" t="s">
         <v>558</v>
@@ -13203,7 +13203,7 @@
         <v>20604</v>
       </c>
       <c r="B72" t="n">
-        <v>135005</v>
+        <v>165905</v>
       </c>
       <c r="C72" t="s">
         <v>574</v>
@@ -13274,7 +13274,7 @@
         <v>20604</v>
       </c>
       <c r="B73" t="n">
-        <v>135006</v>
+        <v>165906</v>
       </c>
       <c r="C73" t="s">
         <v>582</v>
@@ -13349,7 +13349,7 @@
         <v>20604</v>
       </c>
       <c r="B74" t="n">
-        <v>135007</v>
+        <v>165907</v>
       </c>
       <c r="C74" t="s">
         <v>591</v>
@@ -13424,7 +13424,7 @@
         <v>20604</v>
       </c>
       <c r="B75" t="n">
-        <v>135008</v>
+        <v>165908</v>
       </c>
       <c r="C75" t="s">
         <v>600</v>
@@ -13568,7 +13568,7 @@
         <v>20604</v>
       </c>
       <c r="B77" t="n">
-        <v>135009</v>
+        <v>165909</v>
       </c>
       <c r="C77" t="s">
         <v>614</v>
@@ -13643,7 +13643,7 @@
         <v>20604</v>
       </c>
       <c r="B78" t="n">
-        <v>135010</v>
+        <v>165910</v>
       </c>
       <c r="C78" t="s">
         <v>621</v>
@@ -14077,7 +14077,7 @@
         <v>20604</v>
       </c>
       <c r="B84" t="n">
-        <v>135011</v>
+        <v>165911</v>
       </c>
       <c r="C84" t="s">
         <v>663</v>
@@ -14150,7 +14150,7 @@
         <v>20604</v>
       </c>
       <c r="B85" t="n">
-        <v>135012</v>
+        <v>165912</v>
       </c>
       <c r="C85" t="s">
         <v>668</v>
@@ -14300,7 +14300,7 @@
         <v>20604</v>
       </c>
       <c r="B87" t="n">
-        <v>134995</v>
+        <v>134973</v>
       </c>
       <c r="C87" t="s">
         <v>480</v>
@@ -14450,7 +14450,7 @@
         <v>20604</v>
       </c>
       <c r="B89" t="n">
-        <v>135013</v>
+        <v>165913</v>
       </c>
       <c r="C89" t="s">
         <v>697</v>
@@ -14590,7 +14590,7 @@
         <v>20604</v>
       </c>
       <c r="B91" t="n">
-        <v>135014</v>
+        <v>165914</v>
       </c>
       <c r="C91" t="s">
         <v>713</v>
@@ -14655,7 +14655,7 @@
         <v>20604</v>
       </c>
       <c r="B92" t="n">
-        <v>135015</v>
+        <v>165915</v>
       </c>
       <c r="C92" t="s">
         <v>719</v>
@@ -14803,7 +14803,7 @@
         <v>20604</v>
       </c>
       <c r="B94" t="n">
-        <v>135016</v>
+        <v>165916</v>
       </c>
       <c r="C94" t="s">
         <v>729</v>
@@ -14876,7 +14876,7 @@
         <v>20604</v>
       </c>
       <c r="B95" t="n">
-        <v>135017</v>
+        <v>165917</v>
       </c>
       <c r="C95" t="s">
         <v>735</v>
@@ -14951,7 +14951,7 @@
         <v>20604</v>
       </c>
       <c r="B96" t="n">
-        <v>135018</v>
+        <v>165918</v>
       </c>
       <c r="C96" t="s">
         <v>743</v>
@@ -15026,7 +15026,7 @@
         <v>20604</v>
       </c>
       <c r="B97" t="n">
-        <v>135019</v>
+        <v>165919</v>
       </c>
       <c r="C97" t="s">
         <v>752</v>
@@ -15176,7 +15176,7 @@
         <v>20604</v>
       </c>
       <c r="B99" t="n">
-        <v>134995</v>
+        <v>134973</v>
       </c>
       <c r="C99" t="s">
         <v>480</v>
@@ -15251,7 +15251,7 @@
         <v>20604</v>
       </c>
       <c r="B100" t="n">
-        <v>135020</v>
+        <v>165920</v>
       </c>
       <c r="C100" t="s">
         <v>773</v>
@@ -15326,7 +15326,7 @@
         <v>20604</v>
       </c>
       <c r="B101" t="n">
-        <v>135021</v>
+        <v>165921</v>
       </c>
       <c r="C101" t="s">
         <v>780</v>
@@ -15624,7 +15624,7 @@
         <v>20604</v>
       </c>
       <c r="B105" t="n">
-        <v>135022</v>
+        <v>165922</v>
       </c>
       <c r="C105" t="s">
         <v>810</v>
@@ -15768,7 +15768,7 @@
         <v>20604</v>
       </c>
       <c r="B107" t="n">
-        <v>135023</v>
+        <v>165923</v>
       </c>
       <c r="C107" t="s">
         <v>826</v>
@@ -15841,7 +15841,7 @@
         <v>20604</v>
       </c>
       <c r="B108" t="n">
-        <v>135024</v>
+        <v>165924</v>
       </c>
       <c r="C108" t="s">
         <v>830</v>
@@ -15916,7 +15916,7 @@
         <v>20604</v>
       </c>
       <c r="B109" t="n">
-        <v>135025</v>
+        <v>165925</v>
       </c>
       <c r="C109" t="s">
         <v>837</v>
@@ -15989,7 +15989,7 @@
         <v>20604</v>
       </c>
       <c r="B110" t="n">
-        <v>135026</v>
+        <v>165926</v>
       </c>
       <c r="C110" t="s">
         <v>842</v>
@@ -16133,7 +16133,7 @@
         <v>20604</v>
       </c>
       <c r="B112" t="n">
-        <v>135027</v>
+        <v>165927</v>
       </c>
       <c r="C112" t="s">
         <v>858</v>
@@ -16208,7 +16208,7 @@
         <v>20604</v>
       </c>
       <c r="B113" t="n">
-        <v>135028</v>
+        <v>165928</v>
       </c>
       <c r="C113" t="s">
         <v>865</v>
@@ -16283,7 +16283,7 @@
         <v>20604</v>
       </c>
       <c r="B114" t="n">
-        <v>135029</v>
+        <v>165929</v>
       </c>
       <c r="C114" t="s">
         <v>874</v>
@@ -16358,7 +16358,7 @@
         <v>20604</v>
       </c>
       <c r="B115" t="n">
-        <v>135030</v>
+        <v>165930</v>
       </c>
       <c r="C115" t="s">
         <v>881</v>
@@ -16423,7 +16423,7 @@
         <v>20604</v>
       </c>
       <c r="B116" t="n">
-        <v>135031</v>
+        <v>134987</v>
       </c>
       <c r="C116" t="s">
         <v>887</v>
@@ -16488,7 +16488,7 @@
         <v>20604</v>
       </c>
       <c r="B117" t="n">
-        <v>135032</v>
+        <v>165931</v>
       </c>
       <c r="C117" t="s">
         <v>894</v>
@@ -16563,7 +16563,7 @@
         <v>20604</v>
       </c>
       <c r="B118" t="n">
-        <v>135033</v>
+        <v>165932</v>
       </c>
       <c r="C118" t="s">
         <v>903</v>
@@ -16638,7 +16638,7 @@
         <v>20604</v>
       </c>
       <c r="B119" t="n">
-        <v>135034</v>
+        <v>165933</v>
       </c>
       <c r="C119" t="s">
         <v>910</v>
@@ -16713,7 +16713,7 @@
         <v>20604</v>
       </c>
       <c r="B120" t="n">
-        <v>135035</v>
+        <v>165934</v>
       </c>
       <c r="C120" t="s">
         <v>919</v>
@@ -16778,7 +16778,7 @@
         <v>20604</v>
       </c>
       <c r="B121" t="n">
-        <v>135036</v>
+        <v>165935</v>
       </c>
       <c r="C121" t="s">
         <v>928</v>
@@ -17068,7 +17068,7 @@
         <v>20604</v>
       </c>
       <c r="B125" t="n">
-        <v>135037</v>
+        <v>165936</v>
       </c>
       <c r="C125" t="s">
         <v>958</v>
@@ -17143,7 +17143,7 @@
         <v>20604</v>
       </c>
       <c r="B126" t="n">
-        <v>135038</v>
+        <v>165937</v>
       </c>
       <c r="C126" t="s">
         <v>967</v>
@@ -17218,7 +17218,7 @@
         <v>20604</v>
       </c>
       <c r="B127" t="n">
-        <v>135039</v>
+        <v>165938</v>
       </c>
       <c r="C127" t="s">
         <v>973</v>
@@ -17293,7 +17293,7 @@
         <v>20604</v>
       </c>
       <c r="B128" t="n">
-        <v>135040</v>
+        <v>165939</v>
       </c>
       <c r="C128" t="s">
         <v>980</v>
@@ -17358,7 +17358,7 @@
         <v>20604</v>
       </c>
       <c r="B129" t="n">
-        <v>135041</v>
+        <v>165940</v>
       </c>
       <c r="C129" t="s">
         <v>990</v>
@@ -17433,7 +17433,7 @@
         <v>20604</v>
       </c>
       <c r="B130" t="n">
-        <v>135042</v>
+        <v>134991</v>
       </c>
       <c r="C130" t="s">
         <v>997</v>
@@ -17508,7 +17508,7 @@
         <v>20604</v>
       </c>
       <c r="B131" t="n">
-        <v>135030</v>
+        <v>134987</v>
       </c>
       <c r="C131" t="s">
         <v>887</v>
@@ -17654,7 +17654,7 @@
         <v>20604</v>
       </c>
       <c r="B133" t="n">
-        <v>135043</v>
+        <v>165941</v>
       </c>
       <c r="C133" t="s">
         <v>1023</v>
@@ -17727,7 +17727,7 @@
         <v>20604</v>
       </c>
       <c r="B134" t="n">
-        <v>135044</v>
+        <v>165942</v>
       </c>
       <c r="C134" t="s">
         <v>1030</v>
@@ -17802,7 +17802,7 @@
         <v>20604</v>
       </c>
       <c r="B135" t="n">
-        <v>135045</v>
+        <v>165943</v>
       </c>
       <c r="C135" t="s">
         <v>1038</v>
@@ -17952,7 +17952,7 @@
         <v>20604</v>
       </c>
       <c r="B137" t="n">
-        <v>135046</v>
+        <v>165944</v>
       </c>
       <c r="C137" t="s">
         <v>1054</v>
@@ -18027,7 +18027,7 @@
         <v>20604</v>
       </c>
       <c r="B138" t="n">
-        <v>135047</v>
+        <v>165945</v>
       </c>
       <c r="C138" t="s">
         <v>1062</v>
@@ -18102,7 +18102,7 @@
         <v>20604</v>
       </c>
       <c r="B139" t="n">
-        <v>135048</v>
+        <v>165946</v>
       </c>
       <c r="C139" t="s">
         <v>1069</v>
@@ -18248,7 +18248,7 @@
         <v>20604</v>
       </c>
       <c r="B141" t="n">
-        <v>135049</v>
+        <v>165947</v>
       </c>
       <c r="C141" t="s">
         <v>1088</v>
@@ -18323,7 +18323,7 @@
         <v>20604</v>
       </c>
       <c r="B142" t="n">
-        <v>135041</v>
+        <v>134991</v>
       </c>
       <c r="C142" t="s">
         <v>997</v>
@@ -18473,7 +18473,7 @@
         <v>20604</v>
       </c>
       <c r="B144" t="n">
-        <v>135050</v>
+        <v>165948</v>
       </c>
       <c r="C144" t="s">
         <v>1111</v>
@@ -18548,7 +18548,7 @@
         <v>20604</v>
       </c>
       <c r="B145" t="n">
-        <v>135051</v>
+        <v>165949</v>
       </c>
       <c r="C145" t="s">
         <v>1119</v>
@@ -18623,7 +18623,7 @@
         <v>20604</v>
       </c>
       <c r="B146" t="n">
-        <v>135052</v>
+        <v>165950</v>
       </c>
       <c r="C146" t="s">
         <v>1126</v>
@@ -18698,7 +18698,7 @@
         <v>20604</v>
       </c>
       <c r="B147" t="n">
-        <v>135053</v>
+        <v>165951</v>
       </c>
       <c r="C147" t="s">
         <v>1135</v>
@@ -18767,7 +18767,7 @@
         <v>20604</v>
       </c>
       <c r="B148" t="n">
-        <v>135054</v>
+        <v>165952</v>
       </c>
       <c r="C148" t="s">
         <v>1142</v>
@@ -18842,7 +18842,7 @@
         <v>20604</v>
       </c>
       <c r="B149" t="n">
-        <v>135055</v>
+        <v>165953</v>
       </c>
       <c r="C149" t="s">
         <v>1149</v>
@@ -18992,7 +18992,7 @@
         <v>20604</v>
       </c>
       <c r="B151" t="n">
-        <v>135056</v>
+        <v>165954</v>
       </c>
       <c r="C151" t="s">
         <v>1165</v>
@@ -19067,7 +19067,7 @@
         <v>20604</v>
       </c>
       <c r="B152" t="n">
-        <v>135057</v>
+        <v>165955</v>
       </c>
       <c r="C152" t="s">
         <v>1172</v>
@@ -19142,7 +19142,7 @@
         <v>20604</v>
       </c>
       <c r="B153" t="n">
-        <v>135058</v>
+        <v>165956</v>
       </c>
       <c r="C153" t="s">
         <v>1179</v>
@@ -19217,7 +19217,7 @@
         <v>20604</v>
       </c>
       <c r="B154" t="n">
-        <v>135059</v>
+        <v>165957</v>
       </c>
       <c r="C154" t="s">
         <v>1186</v>
@@ -19292,7 +19292,7 @@
         <v>20604</v>
       </c>
       <c r="B155" t="n">
-        <v>135060</v>
+        <v>165958</v>
       </c>
       <c r="C155" t="s">
         <v>1193</v>
@@ -19367,7 +19367,7 @@
         <v>20604</v>
       </c>
       <c r="B156" t="n">
-        <v>135061</v>
+        <v>165959</v>
       </c>
       <c r="C156" t="s">
         <v>1202</v>
@@ -19661,7 +19661,7 @@
         <v>20604</v>
       </c>
       <c r="B160" t="n">
-        <v>135062</v>
+        <v>165960</v>
       </c>
       <c r="C160" t="s">
         <v>1233</v>
@@ -19736,7 +19736,7 @@
         <v>20604</v>
       </c>
       <c r="B161" t="n">
-        <v>135063</v>
+        <v>165961</v>
       </c>
       <c r="C161" t="s">
         <v>1240</v>
@@ -19811,7 +19811,7 @@
         <v>20604</v>
       </c>
       <c r="B162" t="n">
-        <v>135064</v>
+        <v>165962</v>
       </c>
       <c r="C162" t="s">
         <v>1248</v>
@@ -19886,7 +19886,7 @@
         <v>20604</v>
       </c>
       <c r="B163" t="n">
-        <v>135065</v>
+        <v>165963</v>
       </c>
       <c r="C163" t="s">
         <v>1255</v>
@@ -19961,7 +19961,7 @@
         <v>20604</v>
       </c>
       <c r="B164" t="n">
-        <v>135066</v>
+        <v>165964</v>
       </c>
       <c r="C164" t="s">
         <v>1264</v>
@@ -20111,7 +20111,7 @@
         <v>20604</v>
       </c>
       <c r="B166" t="n">
-        <v>135067</v>
+        <v>165965</v>
       </c>
       <c r="C166" t="s">
         <v>1280</v>
@@ -20186,7 +20186,7 @@
         <v>20604</v>
       </c>
       <c r="B167" t="n">
-        <v>135068</v>
+        <v>165966</v>
       </c>
       <c r="C167" t="s">
         <v>1287</v>
@@ -20253,7 +20253,7 @@
         <v>20604</v>
       </c>
       <c r="B168" t="n">
-        <v>135069</v>
+        <v>165967</v>
       </c>
       <c r="C168" t="s">
         <v>1294</v>
@@ -20324,7 +20324,7 @@
         <v>20604</v>
       </c>
       <c r="B169" t="n">
-        <v>135070</v>
+        <v>165968</v>
       </c>
       <c r="C169" t="s">
         <v>1302</v>
@@ -20399,7 +20399,7 @@
         <v>20604</v>
       </c>
       <c r="B170" t="n">
-        <v>135071</v>
+        <v>165969</v>
       </c>
       <c r="C170" t="s">
         <v>1308</v>
@@ -20533,7 +20533,7 @@
         <v>20604</v>
       </c>
       <c r="B172" t="n">
-        <v>135072</v>
+        <v>165970</v>
       </c>
       <c r="C172" t="s">
         <v>1323</v>
@@ -20600,7 +20600,7 @@
         <v>20604</v>
       </c>
       <c r="B173" t="n">
-        <v>135073</v>
+        <v>165971</v>
       </c>
       <c r="C173" t="s">
         <v>1330</v>
@@ -20675,7 +20675,7 @@
         <v>20604</v>
       </c>
       <c r="B174" t="n">
-        <v>135074</v>
+        <v>165972</v>
       </c>
       <c r="C174" t="s">
         <v>1337</v>
@@ -20750,7 +20750,7 @@
         <v>20604</v>
       </c>
       <c r="B175" t="n">
-        <v>135075</v>
+        <v>165973</v>
       </c>
       <c r="C175" t="s">
         <v>1344</v>
@@ -20815,7 +20815,7 @@
         <v>20604</v>
       </c>
       <c r="B176" t="n">
-        <v>135076</v>
+        <v>165974</v>
       </c>
       <c r="C176" t="s">
         <v>1351</v>
@@ -20963,7 +20963,7 @@
         <v>20604</v>
       </c>
       <c r="B178" t="n">
-        <v>135077</v>
+        <v>165975</v>
       </c>
       <c r="C178" t="s">
         <v>1365</v>
@@ -21103,7 +21103,7 @@
         <v>20604</v>
       </c>
       <c r="B180" t="n">
-        <v>135078</v>
+        <v>165976</v>
       </c>
       <c r="C180" t="s">
         <v>1378</v>
@@ -21176,7 +21176,7 @@
         <v>20604</v>
       </c>
       <c r="B181" t="n">
-        <v>135079</v>
+        <v>165977</v>
       </c>
       <c r="C181" t="s">
         <v>1383</v>
@@ -21251,7 +21251,7 @@
         <v>20604</v>
       </c>
       <c r="B182" t="n">
-        <v>135080</v>
+        <v>165978</v>
       </c>
       <c r="C182" t="s">
         <v>1389</v>
@@ -21326,7 +21326,7 @@
         <v>20604</v>
       </c>
       <c r="B183" t="n">
-        <v>135081</v>
+        <v>165979</v>
       </c>
       <c r="C183" t="s">
         <v>1396</v>
@@ -21401,7 +21401,7 @@
         <v>20604</v>
       </c>
       <c r="B184" t="n">
-        <v>135082</v>
+        <v>165980</v>
       </c>
       <c r="C184" t="s">
         <v>1405</v>
@@ -21472,7 +21472,7 @@
         <v>20604</v>
       </c>
       <c r="B185" t="n">
-        <v>135083</v>
+        <v>165981</v>
       </c>
       <c r="C185" t="s">
         <v>1412</v>
@@ -21547,7 +21547,7 @@
         <v>20604</v>
       </c>
       <c r="B186" t="n">
-        <v>135084</v>
+        <v>165982</v>
       </c>
       <c r="C186" t="s">
         <v>1419</v>
@@ -21616,7 +21616,7 @@
         <v>20604</v>
       </c>
       <c r="B187" t="n">
-        <v>135085</v>
+        <v>165983</v>
       </c>
       <c r="C187" t="s">
         <v>1427</v>
@@ -21691,7 +21691,7 @@
         <v>20604</v>
       </c>
       <c r="B188" t="n">
-        <v>135086</v>
+        <v>165984</v>
       </c>
       <c r="C188" t="s">
         <v>1434</v>
@@ -21841,7 +21841,7 @@
         <v>20604</v>
       </c>
       <c r="B190" t="n">
-        <v>135087</v>
+        <v>165985</v>
       </c>
       <c r="C190" t="s">
         <v>1449</v>
@@ -21916,7 +21916,7 @@
         <v>20604</v>
       </c>
       <c r="B191" t="n">
-        <v>135088</v>
+        <v>165986</v>
       </c>
       <c r="C191" t="s">
         <v>1456</v>
@@ -21991,7 +21991,7 @@
         <v>20604</v>
       </c>
       <c r="B192" t="n">
-        <v>135089</v>
+        <v>165987</v>
       </c>
       <c r="C192" t="s">
         <v>1465</v>
@@ -22066,7 +22066,7 @@
         <v>20604</v>
       </c>
       <c r="B193" t="n">
-        <v>135090</v>
+        <v>135048</v>
       </c>
       <c r="C193" t="s">
         <v>1473</v>
@@ -22216,7 +22216,7 @@
         <v>20604</v>
       </c>
       <c r="B195" t="n">
-        <v>135091</v>
+        <v>165988</v>
       </c>
       <c r="C195" t="s">
         <v>1487</v>
@@ -22289,7 +22289,7 @@
         <v>20604</v>
       </c>
       <c r="B196" t="n">
-        <v>135092</v>
+        <v>165989</v>
       </c>
       <c r="C196" t="s">
         <v>1490</v>
@@ -22360,7 +22360,7 @@
         <v>20604</v>
       </c>
       <c r="B197" t="n">
-        <v>135093</v>
+        <v>165990</v>
       </c>
       <c r="C197" t="s">
         <v>1498</v>
@@ -22654,7 +22654,7 @@
         <v>20604</v>
       </c>
       <c r="B201" t="n">
-        <v>135094</v>
+        <v>165991</v>
       </c>
       <c r="C201" t="s">
         <v>1530</v>
@@ -22729,7 +22729,7 @@
         <v>20604</v>
       </c>
       <c r="B202" t="n">
-        <v>135095</v>
+        <v>165992</v>
       </c>
       <c r="C202" t="s">
         <v>1537</v>
@@ -22802,7 +22802,7 @@
         <v>20604</v>
       </c>
       <c r="B203" t="n">
-        <v>135096</v>
+        <v>165993</v>
       </c>
       <c r="C203" t="s">
         <v>1541</v>
@@ -22877,7 +22877,7 @@
         <v>20604</v>
       </c>
       <c r="B204" t="n">
-        <v>135097</v>
+        <v>165994</v>
       </c>
       <c r="C204" t="s">
         <v>1549</v>
@@ -23017,7 +23017,7 @@
         <v>20604</v>
       </c>
       <c r="B206" t="n">
-        <v>135098</v>
+        <v>165995</v>
       </c>
       <c r="C206" t="s">
         <v>1562</v>
@@ -23161,7 +23161,7 @@
         <v>20604</v>
       </c>
       <c r="B208" t="n">
-        <v>135099</v>
+        <v>165996</v>
       </c>
       <c r="C208" t="s">
         <v>1575</v>
@@ -23451,7 +23451,7 @@
         <v>20604</v>
       </c>
       <c r="B212" t="n">
-        <v>135100</v>
+        <v>165997</v>
       </c>
       <c r="C212" t="s">
         <v>1600</v>
@@ -23601,7 +23601,7 @@
         <v>20604</v>
       </c>
       <c r="B214" t="n">
-        <v>135101</v>
+        <v>165998</v>
       </c>
       <c r="C214" t="s">
         <v>1619</v>
@@ -23737,7 +23737,7 @@
         <v>20604</v>
       </c>
       <c r="B216" t="n">
-        <v>135102</v>
+        <v>165999</v>
       </c>
       <c r="C216" t="s">
         <v>1632</v>
@@ -23883,7 +23883,7 @@
         <v>20604</v>
       </c>
       <c r="B218" t="n">
-        <v>135103</v>
+        <v>166000</v>
       </c>
       <c r="C218" t="s">
         <v>1645</v>
@@ -23958,7 +23958,7 @@
         <v>20604</v>
       </c>
       <c r="B219" t="n">
-        <v>135104</v>
+        <v>166001</v>
       </c>
       <c r="C219" t="s">
         <v>1654</v>
@@ -24179,7 +24179,7 @@
         <v>20604</v>
       </c>
       <c r="B222" t="n">
-        <v>135105</v>
+        <v>166002</v>
       </c>
       <c r="C222" t="s">
         <v>1676</v>
@@ -24404,7 +24404,7 @@
         <v>20604</v>
       </c>
       <c r="B225" t="n">
-        <v>135106</v>
+        <v>166003</v>
       </c>
       <c r="C225" t="s">
         <v>1701</v>
@@ -24479,7 +24479,7 @@
         <v>20604</v>
       </c>
       <c r="B226" t="n">
-        <v>135107</v>
+        <v>166004</v>
       </c>
       <c r="C226" t="s">
         <v>1708</v>
@@ -24550,7 +24550,7 @@
         <v>20604</v>
       </c>
       <c r="B227" t="n">
-        <v>135108</v>
+        <v>166005</v>
       </c>
       <c r="C227" t="s">
         <v>1714</v>
@@ -24700,7 +24700,7 @@
         <v>20604</v>
       </c>
       <c r="B229" t="n">
-        <v>134983</v>
+        <v>135019</v>
       </c>
       <c r="C229" t="s">
         <v>387</v>
@@ -24844,7 +24844,7 @@
         <v>20604</v>
       </c>
       <c r="B231" t="n">
-        <v>135109</v>
+        <v>166006</v>
       </c>
       <c r="C231" t="s">
         <v>1746</v>
@@ -24915,7 +24915,7 @@
         <v>20604</v>
       </c>
       <c r="B232" t="n">
-        <v>135110</v>
+        <v>166007</v>
       </c>
       <c r="C232" t="s">
         <v>1753</v>
@@ -25211,7 +25211,7 @@
         <v>20604</v>
       </c>
       <c r="B236" t="n">
-        <v>135111</v>
+        <v>135057</v>
       </c>
       <c r="C236" t="s">
         <v>1789</v>
@@ -25286,7 +25286,7 @@
         <v>20604</v>
       </c>
       <c r="B237" t="n">
-        <v>135112</v>
+        <v>166008</v>
       </c>
       <c r="C237" t="s">
         <v>1796</v>
@@ -25357,7 +25357,7 @@
         <v>20604</v>
       </c>
       <c r="B238" t="n">
-        <v>135113</v>
+        <v>166009</v>
       </c>
       <c r="C238" t="s">
         <v>1805</v>
@@ -25501,7 +25501,7 @@
         <v>20604</v>
       </c>
       <c r="B240" t="n">
-        <v>135114</v>
+        <v>166010</v>
       </c>
       <c r="C240" t="s">
         <v>1820</v>
@@ -25576,7 +25576,7 @@
         <v>20604</v>
       </c>
       <c r="B241" t="n">
-        <v>135115</v>
+        <v>166011</v>
       </c>
       <c r="C241" t="s">
         <v>1827</v>
@@ -25864,7 +25864,7 @@
         <v>20604</v>
       </c>
       <c r="B245" t="n">
-        <v>135116</v>
+        <v>166012</v>
       </c>
       <c r="C245" t="s">
         <v>1853</v>
@@ -25939,7 +25939,7 @@
         <v>20604</v>
       </c>
       <c r="B246" t="n">
-        <v>135117</v>
+        <v>166013</v>
       </c>
       <c r="C246" t="s">
         <v>1861</v>
@@ -26089,7 +26089,7 @@
         <v>20604</v>
       </c>
       <c r="B248" t="n">
-        <v>135118</v>
+        <v>166014</v>
       </c>
       <c r="C248" t="s">
         <v>1875</v>
@@ -26164,7 +26164,7 @@
         <v>20604</v>
       </c>
       <c r="B249" t="n">
-        <v>135119</v>
+        <v>166015</v>
       </c>
       <c r="C249" t="s">
         <v>1883</v>
@@ -26239,7 +26239,7 @@
         <v>20604</v>
       </c>
       <c r="B250" t="n">
-        <v>135120</v>
+        <v>166016</v>
       </c>
       <c r="C250" t="s">
         <v>1889</v>
@@ -26464,7 +26464,7 @@
         <v>20604</v>
       </c>
       <c r="B253" t="n">
-        <v>135121</v>
+        <v>166017</v>
       </c>
       <c r="C253" t="s">
         <v>1912</v>
@@ -26539,7 +26539,7 @@
         <v>20604</v>
       </c>
       <c r="B254" t="n">
-        <v>135122</v>
+        <v>166018</v>
       </c>
       <c r="C254" t="s">
         <v>1918</v>
@@ -26614,7 +26614,7 @@
         <v>20604</v>
       </c>
       <c r="B255" t="n">
-        <v>135123</v>
+        <v>166019</v>
       </c>
       <c r="C255" t="s">
         <v>1927</v>
@@ -26679,7 +26679,7 @@
         <v>20604</v>
       </c>
       <c r="B256" t="n">
-        <v>135124</v>
+        <v>166020</v>
       </c>
       <c r="C256" t="s">
         <v>1934</v>
@@ -26752,7 +26752,7 @@
         <v>20604</v>
       </c>
       <c r="B257" t="n">
-        <v>135125</v>
+        <v>166021</v>
       </c>
       <c r="C257" t="s">
         <v>1939</v>
@@ -26827,7 +26827,7 @@
         <v>20604</v>
       </c>
       <c r="B258" t="n">
-        <v>135126</v>
+        <v>166022</v>
       </c>
       <c r="C258" t="s">
         <v>1946</v>
@@ -27275,7 +27275,7 @@
         <v>20604</v>
       </c>
       <c r="B264" t="n">
-        <v>135127</v>
+        <v>166023</v>
       </c>
       <c r="C264" t="s">
         <v>1991</v>
@@ -27500,7 +27500,7 @@
         <v>20604</v>
       </c>
       <c r="B267" t="n">
-        <v>135128</v>
+        <v>166024</v>
       </c>
       <c r="C267" t="s">
         <v>2012</v>
@@ -27650,7 +27650,7 @@
         <v>20604</v>
       </c>
       <c r="B269" t="n">
-        <v>135129</v>
+        <v>166025</v>
       </c>
       <c r="C269" t="s">
         <v>2026</v>
@@ -27725,7 +27725,7 @@
         <v>20604</v>
       </c>
       <c r="B270" t="n">
-        <v>135130</v>
+        <v>166026</v>
       </c>
       <c r="C270" t="s">
         <v>2036</v>
@@ -28165,7 +28165,7 @@
         <v>20604</v>
       </c>
       <c r="B276" t="n">
-        <v>135131</v>
+        <v>166027</v>
       </c>
       <c r="C276" t="s">
         <v>2081</v>
@@ -28315,7 +28315,7 @@
         <v>20604</v>
       </c>
       <c r="B278" t="n">
-        <v>135132</v>
+        <v>166028</v>
       </c>
       <c r="C278" t="s">
         <v>2095</v>
@@ -28390,7 +28390,7 @@
         <v>20604</v>
       </c>
       <c r="B279" t="n">
-        <v>135133</v>
+        <v>166029</v>
       </c>
       <c r="C279" t="s">
         <v>2103</v>
@@ -28540,7 +28540,7 @@
         <v>20604</v>
       </c>
       <c r="B281" t="n">
-        <v>135134</v>
+        <v>166030</v>
       </c>
       <c r="C281" t="s">
         <v>2120</v>
@@ -28690,7 +28690,7 @@
         <v>20604</v>
       </c>
       <c r="B283" t="n">
-        <v>135135</v>
+        <v>166031</v>
       </c>
       <c r="C283" t="s">
         <v>2134</v>
@@ -28765,7 +28765,7 @@
         <v>20604</v>
       </c>
       <c r="B284" t="n">
-        <v>135136</v>
+        <v>166032</v>
       </c>
       <c r="C284" t="s">
         <v>2141</v>
@@ -28840,7 +28840,7 @@
         <v>20604</v>
       </c>
       <c r="B285" t="n">
-        <v>135137</v>
+        <v>166033</v>
       </c>
       <c r="C285" t="s">
         <v>2151</v>
@@ -28915,7 +28915,7 @@
         <v>20604</v>
       </c>
       <c r="B286" t="n">
-        <v>135138</v>
+        <v>166034</v>
       </c>
       <c r="C286" t="s">
         <v>2158</v>
@@ -29065,7 +29065,7 @@
         <v>20604</v>
       </c>
       <c r="B288" t="n">
-        <v>135139</v>
+        <v>166035</v>
       </c>
       <c r="C288" t="s">
         <v>2174</v>
@@ -29140,7 +29140,7 @@
         <v>20604</v>
       </c>
       <c r="B289" t="n">
-        <v>135140</v>
+        <v>166036</v>
       </c>
       <c r="C289" t="s">
         <v>2181</v>
@@ -29215,7 +29215,7 @@
         <v>20604</v>
       </c>
       <c r="B290" t="n">
-        <v>135141</v>
+        <v>166037</v>
       </c>
       <c r="C290" t="s">
         <v>2188</v>
@@ -29290,7 +29290,7 @@
         <v>20604</v>
       </c>
       <c r="B291" t="n">
-        <v>135142</v>
+        <v>166038</v>
       </c>
       <c r="C291" t="s">
         <v>2195</v>
@@ -29365,7 +29365,7 @@
         <v>20604</v>
       </c>
       <c r="B292" t="n">
-        <v>135143</v>
+        <v>166039</v>
       </c>
       <c r="C292" t="s">
         <v>2202</v>
@@ -29440,7 +29440,7 @@
         <v>20604</v>
       </c>
       <c r="B293" t="n">
-        <v>135089</v>
+        <v>135048</v>
       </c>
       <c r="C293" t="s">
         <v>1473</v>
@@ -29515,7 +29515,7 @@
         <v>20604</v>
       </c>
       <c r="B294" t="n">
-        <v>135144</v>
+        <v>166040</v>
       </c>
       <c r="C294" t="s">
         <v>2215</v>
@@ -29590,7 +29590,7 @@
         <v>20604</v>
       </c>
       <c r="B295" t="n">
-        <v>135145</v>
+        <v>166041</v>
       </c>
       <c r="C295" t="s">
         <v>2222</v>
@@ -29890,7 +29890,7 @@
         <v>20604</v>
       </c>
       <c r="B299" t="n">
-        <v>134986</v>
+        <v>135052</v>
       </c>
       <c r="C299" t="s">
         <v>415</v>
@@ -29965,7 +29965,7 @@
         <v>20604</v>
       </c>
       <c r="B300" t="n">
-        <v>135146</v>
+        <v>135055</v>
       </c>
       <c r="C300" t="s">
         <v>2258</v>
@@ -30115,7 +30115,7 @@
         <v>20604</v>
       </c>
       <c r="B302" t="n">
-        <v>135147</v>
+        <v>166042</v>
       </c>
       <c r="C302" t="s">
         <v>2272</v>
@@ -30190,7 +30190,7 @@
         <v>20604</v>
       </c>
       <c r="B303" t="n">
-        <v>135148</v>
+        <v>166043</v>
       </c>
       <c r="C303" t="s">
         <v>2281</v>
@@ -30265,7 +30265,7 @@
         <v>20604</v>
       </c>
       <c r="B304" t="n">
-        <v>135149</v>
+        <v>166044</v>
       </c>
       <c r="C304" t="s">
         <v>2289</v>
@@ -30415,7 +30415,7 @@
         <v>20604</v>
       </c>
       <c r="B306" t="n">
-        <v>135150</v>
+        <v>166045</v>
       </c>
       <c r="C306" t="s">
         <v>2303</v>
@@ -30490,7 +30490,7 @@
         <v>20604</v>
       </c>
       <c r="B307" t="n">
-        <v>135151</v>
+        <v>166046</v>
       </c>
       <c r="C307" t="s">
         <v>2310</v>
@@ -30561,7 +30561,7 @@
         <v>20604</v>
       </c>
       <c r="B308" t="n">
-        <v>135145</v>
+        <v>135055</v>
       </c>
       <c r="C308" t="s">
         <v>2258</v>
@@ -30632,7 +30632,7 @@
         <v>20604</v>
       </c>
       <c r="B309" t="n">
-        <v>135152</v>
+        <v>166047</v>
       </c>
       <c r="C309" t="s">
         <v>2321</v>
@@ -30703,7 +30703,7 @@
         <v>20604</v>
       </c>
       <c r="B310" t="n">
-        <v>135153</v>
+        <v>166048</v>
       </c>
       <c r="C310" t="s">
         <v>2327</v>
@@ -30774,7 +30774,7 @@
         <v>20604</v>
       </c>
       <c r="B311" t="n">
-        <v>135154</v>
+        <v>166049</v>
       </c>
       <c r="C311" t="s">
         <v>2333</v>
@@ -30845,7 +30845,7 @@
         <v>20604</v>
       </c>
       <c r="B312" t="n">
-        <v>135155</v>
+        <v>166050</v>
       </c>
       <c r="C312" t="s">
         <v>2339</v>
@@ -30916,7 +30916,7 @@
         <v>20604</v>
       </c>
       <c r="B313" t="n">
-        <v>135156</v>
+        <v>166051</v>
       </c>
       <c r="C313" t="s">
         <v>2345</v>
@@ -30987,7 +30987,7 @@
         <v>20604</v>
       </c>
       <c r="B314" t="n">
-        <v>135157</v>
+        <v>166052</v>
       </c>
       <c r="C314" t="s">
         <v>2350</v>
@@ -31120,7 +31120,7 @@
         <v>20604</v>
       </c>
       <c r="B316" t="n">
-        <v>135158</v>
+        <v>166053</v>
       </c>
       <c r="C316" t="s">
         <v>2360</v>
@@ -31191,7 +31191,7 @@
         <v>20604</v>
       </c>
       <c r="B317" t="n">
-        <v>135159</v>
+        <v>166054</v>
       </c>
       <c r="C317" t="s">
         <v>2368</v>
@@ -31262,7 +31262,7 @@
         <v>20604</v>
       </c>
       <c r="B318" t="n">
-        <v>135160</v>
+        <v>166055</v>
       </c>
       <c r="C318" t="s">
         <v>2375</v>
@@ -31333,7 +31333,7 @@
         <v>20604</v>
       </c>
       <c r="B319" t="n">
-        <v>135161</v>
+        <v>166056</v>
       </c>
       <c r="C319" t="s">
         <v>2382</v>
@@ -31404,7 +31404,7 @@
         <v>20604</v>
       </c>
       <c r="B320" t="n">
-        <v>135162</v>
+        <v>166057</v>
       </c>
       <c r="C320" t="s">
         <v>2389</v>
@@ -31479,7 +31479,7 @@
         <v>20604</v>
       </c>
       <c r="B321" t="n">
-        <v>135163</v>
+        <v>166058</v>
       </c>
       <c r="C321" t="s">
         <v>2398</v>
@@ -31554,7 +31554,7 @@
         <v>20604</v>
       </c>
       <c r="B322" t="n">
-        <v>135164</v>
+        <v>166059</v>
       </c>
       <c r="C322" t="s">
         <v>2408</v>
@@ -31629,7 +31629,7 @@
         <v>20604</v>
       </c>
       <c r="B323" t="n">
-        <v>135165</v>
+        <v>166060</v>
       </c>
       <c r="C323" t="s">
         <v>2418</v>
@@ -31704,7 +31704,7 @@
         <v>20604</v>
       </c>
       <c r="B324" t="n">
-        <v>135166</v>
+        <v>166061</v>
       </c>
       <c r="C324" t="s">
         <v>2428</v>
@@ -31775,7 +31775,7 @@
         <v>20604</v>
       </c>
       <c r="B325" t="n">
-        <v>135167</v>
+        <v>166062</v>
       </c>
       <c r="C325" t="s">
         <v>2438</v>
@@ -31846,7 +31846,7 @@
         <v>20604</v>
       </c>
       <c r="B326" t="n">
-        <v>135168</v>
+        <v>166063</v>
       </c>
       <c r="C326" t="s">
         <v>2447</v>
@@ -31921,7 +31921,7 @@
         <v>20604</v>
       </c>
       <c r="B327" t="n">
-        <v>135169</v>
+        <v>166064</v>
       </c>
       <c r="C327" t="s">
         <v>2457</v>
@@ -31982,7 +31982,7 @@
         <v>20604</v>
       </c>
       <c r="B328" t="n">
-        <v>135110</v>
+        <v>135057</v>
       </c>
       <c r="C328" t="s">
         <v>1789</v>
@@ -32053,7 +32053,7 @@
         <v>20604</v>
       </c>
       <c r="B329" t="n">
-        <v>135170</v>
+        <v>166065</v>
       </c>
       <c r="C329" t="s">
         <v>2471</v>
@@ -32122,7 +32122,7 @@
         <v>20604</v>
       </c>
       <c r="B330" t="n">
-        <v>135171</v>
+        <v>166066</v>
       </c>
       <c r="C330" t="s">
         <v>2478</v>
@@ -32191,7 +32191,7 @@
         <v>20604</v>
       </c>
       <c r="B331" t="n">
-        <v>135172</v>
+        <v>166067</v>
       </c>
       <c r="C331" t="s">
         <v>2485</v>
@@ -32327,7 +32327,7 @@
         <v>20604</v>
       </c>
       <c r="B333" t="n">
-        <v>135173</v>
+        <v>166068</v>
       </c>
       <c r="C333" t="s">
         <v>2499</v>
